--- a/DOLLIBAR_Project/src/main/resources/propertyFile/dollibar.erp.excel.xlsx
+++ b/DOLLIBAR_Project/src/main/resources/propertyFile/dollibar.erp.excel.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
   <si>
     <t>Testcase Name</t>
   </si>
@@ -169,6 +169,60 @@
   </si>
   <si>
     <t>sfor purchase</t>
+  </si>
+  <si>
+    <t>Test case name</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>product serach field</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>billofmaterialsearch field</t>
+  </si>
+  <si>
+    <t>qty-produce</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> warehouse for production search field</t>
+  </si>
+  <si>
+    <t>force to search field</t>
+  </si>
+  <si>
+    <t>status search field</t>
+  </si>
+  <si>
+    <t>Select action text filed</t>
+  </si>
+  <si>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>iphone</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>redmi</t>
+  </si>
+  <si>
+    <t>wak</t>
+  </si>
+  <si>
+    <t>produced</t>
+  </si>
+  <si>
+    <t>enable</t>
   </si>
 </sst>
 </file>
@@ -1638,13 +1692,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="25.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="23.1111111111111" customWidth="1"/>
@@ -1652,6 +1706,13 @@
     <col min="4" max="4" width="22.7777777777778" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="29.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="23.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="34.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="25.1111111111111" customWidth="1"/>
+    <col min="10" max="10" width="24.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="23.8888888888889" customWidth="1"/>
+    <col min="12" max="12" width="24.7777777777778" customWidth="1"/>
+    <col min="13" max="13" width="25.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1687,6 +1748,111 @@
       </c>
       <c r="E2" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5">
+        <v>1111</v>
+      </c>
+      <c r="H5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
